--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value38.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value38.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7331116786134543</v>
+        <v>1.954273223876953</v>
       </c>
       <c r="B1">
-        <v>0.8667046357132765</v>
+        <v>2.416875600814819</v>
       </c>
       <c r="C1">
-        <v>1.137204267192086</v>
+        <v>3.361053943634033</v>
       </c>
       <c r="D1">
-        <v>2.632702057145005</v>
+        <v>6.471306324005127</v>
       </c>
       <c r="E1">
-        <v>3.714554924280568</v>
+        <v>1.749944925308228</v>
       </c>
     </row>
   </sheetData>
